--- a/doc/사운드 리스트.xlsx
+++ b/doc/사운드 리스트.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="82">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>레벨업 효과음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>내부 상점 아이템 구매음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,10 +134,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>형식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>outbg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -174,14 +166,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>wav</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>주인공 점프음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -238,10 +222,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>wav</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>slide</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -330,10 +310,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>wav</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>flap</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -355,10 +331,6 @@
   </si>
   <si>
     <t>innerbg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>levelup</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -394,7 +366,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,8 +385,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -422,14 +400,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -731,10 +948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F35"/>
+  <dimension ref="B2:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B3" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -742,384 +959,363 @@
     <col min="2" max="2" width="22.125" customWidth="1"/>
     <col min="3" max="3" width="27.25" customWidth="1"/>
     <col min="4" max="4" width="41.75" customWidth="1"/>
-    <col min="5" max="5" width="36.125" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="C3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="9"/>
+      <c r="C5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="13"/>
+      <c r="C7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="13"/>
+      <c r="C8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="13"/>
+      <c r="C9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="13"/>
+      <c r="C10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="13"/>
+      <c r="C11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="13"/>
+      <c r="C12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="13"/>
+      <c r="C13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="13"/>
+      <c r="C14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="13"/>
+      <c r="C15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="13"/>
+      <c r="C16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="13"/>
+      <c r="C17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="13"/>
+      <c r="C18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="13"/>
+      <c r="C19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="13"/>
+      <c r="C20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="13"/>
+      <c r="C21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="13"/>
+      <c r="C22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="13"/>
+      <c r="C23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="13"/>
+      <c r="C24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="13"/>
+      <c r="C25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="13"/>
+      <c r="C26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="13"/>
+      <c r="C27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="9"/>
+      <c r="C28" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="13"/>
+      <c r="C30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="13"/>
+      <c r="C31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="9"/>
+      <c r="C32" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="E13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" t="s">
-        <v>70</v>
-      </c>
-      <c r="F24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" t="s">
-        <v>72</v>
-      </c>
-      <c r="F26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" t="s">
-        <v>63</v>
-      </c>
-      <c r="F28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" t="s">
-        <v>36</v>
-      </c>
-      <c r="F31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32" t="s">
-        <v>37</v>
-      </c>
-      <c r="F32" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C33" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
